--- a/public/excel/check-writer-template.xlsx
+++ b/public/excel/check-writer-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Desktop\management-system\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVELOPER-LAPTOP\Desktop\management\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286F621-1381-4E53-8F5B-AED7F1CD4701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03652E34-7D7C-4BBF-B366-BF61FA173E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="14" r:id="rId1"/>
@@ -177,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -229,6 +229,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,20 +571,20 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="str">
-        <f>"  " &amp;'Request Data'!J2</f>
-        <v xml:space="preserve">  </v>
+        <f>"  " &amp;LEFT('Request Data'!J2, 1) &amp; "   " &amp; MID('Request Data'!J2, 2, 1) &amp; "     " &amp; MID('Request Data'!J2, 3, 1) &amp; "   " &amp; MID('Request Data'!J2, 4, 1) &amp; "   " &amp; MID('Request Data'!J2, 5, 1) &amp; "   " &amp; MID('Request Data'!J2, 6, 1) &amp; "   " &amp; MID('Request Data'!J2, 7, 1) &amp; "   " &amp; MID('Request Data'!J2, 8, 1)</f>
+        <v xml:space="preserve">                         </v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -595,7 +596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="str">
         <f>"  " &amp; 'Request Data'!E2</f>
@@ -609,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -617,7 +618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
@@ -625,7 +626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
@@ -633,7 +634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
@@ -641,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -649,7 +650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="18" t="str">
         <f>"  " &amp; 'Request Data'!C2</f>
@@ -660,7 +661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
@@ -668,7 +669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="18"/>
       <c r="C10" s="17"/>
@@ -676,7 +677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="18"/>
       <c r="C11" s="17"/>
@@ -684,7 +685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="18"/>
       <c r="C12" s="17"/>
@@ -692,7 +693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="18"/>
       <c r="C13" s="17"/>
@@ -700,7 +701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="18"/>
       <c r="C14" s="17"/>
@@ -708,7 +709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
@@ -716,7 +717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="18"/>
       <c r="C16" s="17"/>
@@ -724,7 +725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="18"/>
       <c r="C17" s="17"/>
@@ -732,7 +733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="18"/>
       <c r="C18" s="17"/>
@@ -740,7 +741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="18"/>
       <c r="C19" s="17"/>
@@ -748,7 +749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="18"/>
       <c r="C20" s="17"/>
@@ -756,7 +757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="18"/>
       <c r="C21" s="17"/>
@@ -764,7 +765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="18"/>
       <c r="C22" s="17"/>
@@ -772,7 +773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="18"/>
       <c r="C23" s="17"/>
@@ -780,7 +781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="18"/>
       <c r="C24" s="17"/>
@@ -788,7 +789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="18"/>
       <c r="C25" s="17"/>
@@ -796,37 +797,37 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="8"/>
       <c r="C27" s="17"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="9"/>
       <c r="C31" s="12"/>
@@ -849,20 +850,20 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="str">
-        <f>"  " &amp;'Request Data'!J11</f>
-        <v xml:space="preserve">  </v>
+        <f>"  " &amp;LEFT('Request Data'!J11, 1) &amp; "   " &amp; MID('Request Data'!J11, 2, 1) &amp; "     " &amp; MID('Request Data'!J11, 3, 1) &amp; "   " &amp; MID('Request Data'!J11, 4, 1) &amp; "   " &amp; MID('Request Data'!J11, 5, 1) &amp; "   " &amp; MID('Request Data'!J11, 6, 1) &amp; "   " &amp; MID('Request Data'!J11, 7, 1) &amp; "   " &amp; MID('Request Data'!J11, 8, 1)</f>
+        <v xml:space="preserve">                         </v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -874,7 +875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="str">
         <f>"  " &amp; 'Request Data'!E11</f>
@@ -888,7 +889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -896,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
@@ -904,7 +905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
@@ -912,7 +913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
@@ -920,7 +921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -928,7 +929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="18" t="str">
         <f>"  " &amp; 'Request Data'!C11</f>
@@ -939,7 +940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
@@ -947,7 +948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="18"/>
       <c r="C10" s="17"/>
@@ -955,7 +956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="18"/>
       <c r="C11" s="17"/>
@@ -963,7 +964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="18"/>
       <c r="C12" s="17"/>
@@ -971,7 +972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="18"/>
       <c r="C13" s="17"/>
@@ -979,7 +980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="18"/>
       <c r="C14" s="17"/>
@@ -987,7 +988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
@@ -995,7 +996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="18"/>
       <c r="C16" s="17"/>
@@ -1003,7 +1004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="18"/>
       <c r="C17" s="17"/>
@@ -1011,7 +1012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="18"/>
       <c r="C18" s="17"/>
@@ -1019,7 +1020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="18"/>
       <c r="C19" s="17"/>
@@ -1027,7 +1028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="18"/>
       <c r="C20" s="17"/>
@@ -1035,7 +1036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="18"/>
       <c r="C21" s="17"/>
@@ -1043,7 +1044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="18"/>
       <c r="C22" s="17"/>
@@ -1051,7 +1052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="18"/>
       <c r="C23" s="17"/>
@@ -1059,7 +1060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="18"/>
       <c r="C24" s="17"/>
@@ -1067,7 +1068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="18"/>
       <c r="C25" s="17"/>
@@ -1075,37 +1076,37 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="8"/>
       <c r="C27" s="17"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="9"/>
       <c r="C31" s="12"/>
@@ -1125,13 +1126,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="8.88671875" style="19"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1142,20 +1146,20 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="str">
-        <f>"  " &amp;'Request Data'!J3</f>
-        <v xml:space="preserve">  </v>
+        <f>"  " &amp;LEFT('Request Data'!J3, 1) &amp; "   " &amp; MID('Request Data'!J3, 2, 1) &amp; "     " &amp; MID('Request Data'!J3, 3, 1) &amp; "   " &amp; MID('Request Data'!J3, 4, 1) &amp; "   " &amp; MID('Request Data'!J3, 5, 1) &amp; "   " &amp; MID('Request Data'!J3, 6, 1) &amp; "   " &amp; MID('Request Data'!J3, 7, 1) &amp; "   " &amp; MID('Request Data'!J3, 8, 1)</f>
+        <v xml:space="preserve">                         </v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1167,7 +1171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="str">
         <f>"  " &amp; 'Request Data'!E3</f>
@@ -1181,7 +1185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -1189,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
@@ -1197,7 +1201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
@@ -1205,7 +1209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
@@ -1213,7 +1217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -1221,7 +1225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="18" t="str">
         <f>"  " &amp; 'Request Data'!C3</f>
@@ -1232,7 +1236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
@@ -1240,7 +1244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="18"/>
       <c r="C10" s="17"/>
@@ -1248,7 +1252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="18"/>
       <c r="C11" s="17"/>
@@ -1256,7 +1260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="18"/>
       <c r="C12" s="17"/>
@@ -1264,7 +1268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="18"/>
       <c r="C13" s="17"/>
@@ -1272,7 +1276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="18"/>
       <c r="C14" s="17"/>
@@ -1280,7 +1284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
@@ -1288,7 +1292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="18"/>
       <c r="C16" s="17"/>
@@ -1296,7 +1300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="18"/>
       <c r="C17" s="17"/>
@@ -1304,7 +1308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="18"/>
       <c r="C18" s="17"/>
@@ -1312,7 +1316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="18"/>
       <c r="C19" s="17"/>
@@ -1320,7 +1324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="18"/>
       <c r="C20" s="17"/>
@@ -1328,7 +1332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="18"/>
       <c r="C21" s="17"/>
@@ -1336,7 +1340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="18"/>
       <c r="C22" s="17"/>
@@ -1344,7 +1348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="18"/>
       <c r="C23" s="17"/>
@@ -1352,7 +1356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="18"/>
       <c r="C24" s="17"/>
@@ -1360,7 +1364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="18"/>
       <c r="C25" s="17"/>
@@ -1368,37 +1372,37 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="8"/>
       <c r="C27" s="17"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="9"/>
       <c r="C31" s="12"/>
@@ -1421,20 +1425,20 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="str">
-        <f>"  " &amp;'Request Data'!J4</f>
-        <v xml:space="preserve">  </v>
+        <f>"  " &amp;LEFT('Request Data'!J4, 1) &amp; "   " &amp; MID('Request Data'!J4, 2, 1) &amp; "     " &amp; MID('Request Data'!J4, 3, 1) &amp; "   " &amp; MID('Request Data'!J4, 4, 1) &amp; "   " &amp; MID('Request Data'!J4, 5, 1) &amp; "   " &amp; MID('Request Data'!J4, 6, 1) &amp; "   " &amp; MID('Request Data'!J4, 7, 1) &amp; "   " &amp; MID('Request Data'!J4, 8, 1)</f>
+        <v xml:space="preserve">                         </v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1446,7 +1450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="str">
         <f>"  " &amp; 'Request Data'!E4</f>
@@ -1460,7 +1464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -1468,7 +1472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
@@ -1476,7 +1480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
@@ -1484,7 +1488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
@@ -1492,7 +1496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -1500,7 +1504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="18" t="str">
         <f>"  " &amp; 'Request Data'!C4</f>
@@ -1511,7 +1515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
@@ -1519,7 +1523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="18"/>
       <c r="C10" s="17"/>
@@ -1527,7 +1531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="18"/>
       <c r="C11" s="17"/>
@@ -1535,7 +1539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="18"/>
       <c r="C12" s="17"/>
@@ -1543,7 +1547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="18"/>
       <c r="C13" s="17"/>
@@ -1551,7 +1555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="18"/>
       <c r="C14" s="17"/>
@@ -1559,7 +1563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
@@ -1567,7 +1571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="18"/>
       <c r="C16" s="17"/>
@@ -1575,7 +1579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="18"/>
       <c r="C17" s="17"/>
@@ -1583,7 +1587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="18"/>
       <c r="C18" s="17"/>
@@ -1591,7 +1595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="18"/>
       <c r="C19" s="17"/>
@@ -1599,7 +1603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="18"/>
       <c r="C20" s="17"/>
@@ -1607,7 +1611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="18"/>
       <c r="C21" s="17"/>
@@ -1615,7 +1619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="18"/>
       <c r="C22" s="17"/>
@@ -1623,7 +1627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="18"/>
       <c r="C23" s="17"/>
@@ -1631,7 +1635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="18"/>
       <c r="C24" s="17"/>
@@ -1639,7 +1643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="18"/>
       <c r="C25" s="17"/>
@@ -1647,37 +1651,37 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="8"/>
       <c r="C27" s="17"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="9"/>
       <c r="C31" s="12"/>
@@ -1703,17 +1707,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="str">
-        <f>"  " &amp;'Request Data'!J5</f>
-        <v xml:space="preserve">  </v>
+        <f>"  " &amp;LEFT('Request Data'!J5, 1) &amp; "   " &amp; MID('Request Data'!J5, 2, 1) &amp; "     " &amp; MID('Request Data'!J5, 3, 1) &amp; "   " &amp; MID('Request Data'!J5, 4, 1) &amp; "   " &amp; MID('Request Data'!J5, 5, 1) &amp; "   " &amp; MID('Request Data'!J5, 6, 1) &amp; "   " &amp; MID('Request Data'!J5, 7, 1) &amp; "   " &amp; MID('Request Data'!J5, 8, 1)</f>
+        <v xml:space="preserve">                         </v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1725,7 +1729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="str">
         <f>"  " &amp; 'Request Data'!E5</f>
@@ -1739,7 +1743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -1747,7 +1751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
@@ -1755,7 +1759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
@@ -1763,7 +1767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
@@ -1771,7 +1775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -1779,7 +1783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="18" t="str">
         <f>"  " &amp; 'Request Data'!C5</f>
@@ -1790,7 +1794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
@@ -1798,7 +1802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="18"/>
       <c r="C10" s="17"/>
@@ -1806,7 +1810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="18"/>
       <c r="C11" s="17"/>
@@ -1814,7 +1818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="18"/>
       <c r="C12" s="17"/>
@@ -1822,7 +1826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="18"/>
       <c r="C13" s="17"/>
@@ -1830,7 +1834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="18"/>
       <c r="C14" s="17"/>
@@ -1838,7 +1842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
@@ -1846,7 +1850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="18"/>
       <c r="C16" s="17"/>
@@ -1854,7 +1858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="18"/>
       <c r="C17" s="17"/>
@@ -1862,7 +1866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="18"/>
       <c r="C18" s="17"/>
@@ -1870,7 +1874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="18"/>
       <c r="C19" s="17"/>
@@ -1878,7 +1882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="18"/>
       <c r="C20" s="17"/>
@@ -1886,7 +1890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="18"/>
       <c r="C21" s="17"/>
@@ -1894,7 +1898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="18"/>
       <c r="C22" s="17"/>
@@ -1902,7 +1906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="18"/>
       <c r="C23" s="17"/>
@@ -1910,7 +1914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="18"/>
       <c r="C24" s="17"/>
@@ -1918,7 +1922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="18"/>
       <c r="C25" s="17"/>
@@ -1926,37 +1930,37 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="8"/>
       <c r="C27" s="17"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="9"/>
       <c r="C31" s="12"/>
@@ -1982,17 +1986,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="str">
-        <f>"  " &amp;'Request Data'!J6</f>
-        <v xml:space="preserve">  </v>
+        <f>"  " &amp;LEFT('Request Data'!J6, 1) &amp; "   " &amp; MID('Request Data'!J6, 2, 1) &amp; "     " &amp; MID('Request Data'!J6, 3, 1) &amp; "   " &amp; MID('Request Data'!J6, 4, 1) &amp; "   " &amp; MID('Request Data'!J6, 5, 1) &amp; "   " &amp; MID('Request Data'!J6, 6, 1) &amp; "   " &amp; MID('Request Data'!J6, 7, 1) &amp; "   " &amp; MID('Request Data'!J6, 8, 1)</f>
+        <v xml:space="preserve">                         </v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -2004,7 +2008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="str">
         <f>"  " &amp; 'Request Data'!E6</f>
@@ -2018,7 +2022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -2026,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
@@ -2034,7 +2038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
@@ -2042,7 +2046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
@@ -2050,7 +2054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -2058,7 +2062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="18" t="str">
         <f>"  " &amp; 'Request Data'!C6</f>
@@ -2069,7 +2073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
@@ -2077,7 +2081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="18"/>
       <c r="C10" s="17"/>
@@ -2085,7 +2089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="18"/>
       <c r="C11" s="17"/>
@@ -2093,7 +2097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="18"/>
       <c r="C12" s="17"/>
@@ -2101,7 +2105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="18"/>
       <c r="C13" s="17"/>
@@ -2109,7 +2113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="18"/>
       <c r="C14" s="17"/>
@@ -2117,7 +2121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
@@ -2125,7 +2129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="18"/>
       <c r="C16" s="17"/>
@@ -2133,7 +2137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="18"/>
       <c r="C17" s="17"/>
@@ -2141,7 +2145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="18"/>
       <c r="C18" s="17"/>
@@ -2149,7 +2153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="18"/>
       <c r="C19" s="17"/>
@@ -2157,7 +2161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="18"/>
       <c r="C20" s="17"/>
@@ -2165,7 +2169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="18"/>
       <c r="C21" s="17"/>
@@ -2173,7 +2177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="18"/>
       <c r="C22" s="17"/>
@@ -2181,7 +2185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="18"/>
       <c r="C23" s="17"/>
@@ -2189,7 +2193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="18"/>
       <c r="C24" s="17"/>
@@ -2197,7 +2201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="18"/>
       <c r="C25" s="17"/>
@@ -2205,37 +2209,37 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="8"/>
       <c r="C27" s="17"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="9"/>
       <c r="C31" s="12"/>
@@ -2258,20 +2262,20 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="str">
-        <f>"  " &amp;'Request Data'!J7</f>
-        <v xml:space="preserve">  </v>
+        <f>"  " &amp;LEFT('Request Data'!J7, 1) &amp; "   " &amp; MID('Request Data'!J7, 2, 1) &amp; "     " &amp; MID('Request Data'!J7, 3, 1) &amp; "   " &amp; MID('Request Data'!J7, 4, 1) &amp; "   " &amp; MID('Request Data'!J7, 5, 1) &amp; "   " &amp; MID('Request Data'!J7, 6, 1) &amp; "   " &amp; MID('Request Data'!J7, 7, 1) &amp; "   " &amp; MID('Request Data'!J7, 8, 1)</f>
+        <v xml:space="preserve">                         </v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -2283,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="str">
         <f>"  " &amp; 'Request Data'!E7</f>
@@ -2297,7 +2301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -2305,7 +2309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
@@ -2313,7 +2317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
@@ -2321,7 +2325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
@@ -2329,7 +2333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -2337,7 +2341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="18" t="str">
         <f>"  " &amp; 'Request Data'!C7</f>
@@ -2348,7 +2352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
@@ -2356,7 +2360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="18"/>
       <c r="C10" s="17"/>
@@ -2364,7 +2368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="18"/>
       <c r="C11" s="17"/>
@@ -2372,7 +2376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="18"/>
       <c r="C12" s="17"/>
@@ -2380,7 +2384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="18"/>
       <c r="C13" s="17"/>
@@ -2388,7 +2392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="18"/>
       <c r="C14" s="17"/>
@@ -2396,7 +2400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
@@ -2404,7 +2408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="18"/>
       <c r="C16" s="17"/>
@@ -2412,7 +2416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="18"/>
       <c r="C17" s="17"/>
@@ -2420,7 +2424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="18"/>
       <c r="C18" s="17"/>
@@ -2428,7 +2432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="18"/>
       <c r="C19" s="17"/>
@@ -2436,7 +2440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="18"/>
       <c r="C20" s="17"/>
@@ -2444,7 +2448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="18"/>
       <c r="C21" s="17"/>
@@ -2452,7 +2456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="18"/>
       <c r="C22" s="17"/>
@@ -2460,7 +2464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="18"/>
       <c r="C23" s="17"/>
@@ -2468,7 +2472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="18"/>
       <c r="C24" s="17"/>
@@ -2476,7 +2480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="18"/>
       <c r="C25" s="17"/>
@@ -2484,37 +2488,37 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="8"/>
       <c r="C27" s="17"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="9"/>
       <c r="C31" s="12"/>
@@ -2540,17 +2544,17 @@
       <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="str">
-        <f>"  " &amp;'Request Data'!J8</f>
-        <v xml:space="preserve">  </v>
+        <f>"  " &amp;LEFT('Request Data'!J8, 1) &amp; "   " &amp; MID('Request Data'!J8, 2, 1) &amp; "     " &amp; MID('Request Data'!J8, 3, 1) &amp; "   " &amp; MID('Request Data'!J8, 4, 1) &amp; "   " &amp; MID('Request Data'!J8, 5, 1) &amp; "   " &amp; MID('Request Data'!J8, 6, 1) &amp; "   " &amp; MID('Request Data'!J8, 7, 1) &amp; "   " &amp; MID('Request Data'!J8, 8, 1)</f>
+        <v xml:space="preserve">                         </v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -2562,7 +2566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="str">
         <f>"  " &amp; 'Request Data'!E8</f>
@@ -2576,7 +2580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -2584,7 +2588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
@@ -2592,7 +2596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
@@ -2600,7 +2604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
@@ -2608,7 +2612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -2616,7 +2620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="18" t="str">
         <f>"  " &amp; 'Request Data'!C8</f>
@@ -2627,7 +2631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
@@ -2635,7 +2639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="18"/>
       <c r="C10" s="17"/>
@@ -2643,7 +2647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="18"/>
       <c r="C11" s="17"/>
@@ -2651,7 +2655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="18"/>
       <c r="C12" s="17"/>
@@ -2659,7 +2663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="18"/>
       <c r="C13" s="17"/>
@@ -2667,7 +2671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="18"/>
       <c r="C14" s="17"/>
@@ -2675,7 +2679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
@@ -2683,7 +2687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="18"/>
       <c r="C16" s="17"/>
@@ -2691,7 +2695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="18"/>
       <c r="C17" s="17"/>
@@ -2699,7 +2703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="18"/>
       <c r="C18" s="17"/>
@@ -2707,7 +2711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="18"/>
       <c r="C19" s="17"/>
@@ -2715,7 +2719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="18"/>
       <c r="C20" s="17"/>
@@ -2723,7 +2727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="18"/>
       <c r="C21" s="17"/>
@@ -2731,7 +2735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="18"/>
       <c r="C22" s="17"/>
@@ -2739,7 +2743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="18"/>
       <c r="C23" s="17"/>
@@ -2747,7 +2751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="18"/>
       <c r="C24" s="17"/>
@@ -2755,7 +2759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="18"/>
       <c r="C25" s="17"/>
@@ -2763,37 +2767,37 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="8"/>
       <c r="C27" s="17"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="9"/>
       <c r="C31" s="12"/>
@@ -2816,20 +2820,20 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="str">
-        <f>"  " &amp;'Request Data'!J9</f>
-        <v xml:space="preserve">  </v>
+        <f>"  " &amp;LEFT('Request Data'!J9, 1) &amp; "   " &amp; MID('Request Data'!J9, 2, 1) &amp; "     " &amp; MID('Request Data'!J9, 3, 1) &amp; "   " &amp; MID('Request Data'!J9, 4, 1) &amp; "   " &amp; MID('Request Data'!J9, 5, 1) &amp; "   " &amp; MID('Request Data'!J9, 6, 1) &amp; "   " &amp; MID('Request Data'!J9, 7, 1) &amp; "   " &amp; MID('Request Data'!J9, 8, 1)</f>
+        <v xml:space="preserve">                         </v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -2841,7 +2845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="str">
         <f>"  " &amp; 'Request Data'!E9</f>
@@ -2855,7 +2859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -2863,7 +2867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
@@ -2871,7 +2875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
@@ -2879,7 +2883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
@@ -2887,7 +2891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -2895,7 +2899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="18" t="str">
         <f>"  " &amp; 'Request Data'!C9</f>
@@ -2906,7 +2910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
@@ -2914,7 +2918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="18"/>
       <c r="C10" s="17"/>
@@ -2922,7 +2926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="18"/>
       <c r="C11" s="17"/>
@@ -2930,7 +2934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="18"/>
       <c r="C12" s="17"/>
@@ -2938,7 +2942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="18"/>
       <c r="C13" s="17"/>
@@ -2946,7 +2950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="18"/>
       <c r="C14" s="17"/>
@@ -2954,7 +2958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
@@ -2962,7 +2966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="18"/>
       <c r="C16" s="17"/>
@@ -2970,7 +2974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="18"/>
       <c r="C17" s="17"/>
@@ -2978,7 +2982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="18"/>
       <c r="C18" s="17"/>
@@ -2986,7 +2990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="18"/>
       <c r="C19" s="17"/>
@@ -2994,7 +2998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="18"/>
       <c r="C20" s="17"/>
@@ -3002,7 +3006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="18"/>
       <c r="C21" s="17"/>
@@ -3010,7 +3014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="18"/>
       <c r="C22" s="17"/>
@@ -3018,7 +3022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="18"/>
       <c r="C23" s="17"/>
@@ -3026,7 +3030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="18"/>
       <c r="C24" s="17"/>
@@ -3034,7 +3038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="18"/>
       <c r="C25" s="17"/>
@@ -3042,37 +3046,37 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="8"/>
       <c r="C27" s="17"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="9"/>
       <c r="C31" s="12"/>
@@ -3095,20 +3099,20 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="str">
-        <f>"  " &amp;'Request Data'!J10</f>
-        <v xml:space="preserve">  </v>
+        <f>"  " &amp;LEFT('Request Data'!J10, 1) &amp; "   " &amp; MID('Request Data'!J10, 2, 1) &amp; "     " &amp; MID('Request Data'!J10, 3, 1) &amp; "   " &amp; MID('Request Data'!J10, 4, 1) &amp; "   " &amp; MID('Request Data'!J10, 5, 1) &amp; "   " &amp; MID('Request Data'!J10, 6, 1) &amp; "   " &amp; MID('Request Data'!J10, 7, 1) &amp; "   " &amp; MID('Request Data'!J10, 8, 1)</f>
+        <v xml:space="preserve">                         </v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -3120,7 +3124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="str">
         <f>"  " &amp; 'Request Data'!E10</f>
@@ -3134,7 +3138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -3142,7 +3146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
@@ -3150,7 +3154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
@@ -3158,7 +3162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
@@ -3166,7 +3170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -3174,7 +3178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="18" t="str">
         <f>"  " &amp; 'Request Data'!C10</f>
@@ -3185,7 +3189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
@@ -3193,7 +3197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="18"/>
       <c r="C10" s="17"/>
@@ -3201,7 +3205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="18"/>
       <c r="C11" s="17"/>
@@ -3209,7 +3213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="18"/>
       <c r="C12" s="17"/>
@@ -3217,7 +3221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="18"/>
       <c r="C13" s="17"/>
@@ -3225,7 +3229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="18"/>
       <c r="C14" s="17"/>
@@ -3233,7 +3237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
@@ -3241,7 +3245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="18"/>
       <c r="C16" s="17"/>
@@ -3249,7 +3253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="18"/>
       <c r="C17" s="17"/>
@@ -3257,7 +3261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="18"/>
       <c r="C18" s="17"/>
@@ -3265,7 +3269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="18"/>
       <c r="C19" s="17"/>
@@ -3273,7 +3277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="18"/>
       <c r="C20" s="17"/>
@@ -3281,7 +3285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="18"/>
       <c r="C21" s="17"/>
@@ -3289,7 +3293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="18"/>
       <c r="C22" s="17"/>
@@ -3297,7 +3301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="18"/>
       <c r="C23" s="17"/>
@@ -3305,7 +3309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="18"/>
       <c r="C24" s="17"/>
@@ -3313,7 +3317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="18"/>
       <c r="C25" s="17"/>
@@ -3321,37 +3325,37 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="8"/>
       <c r="C27" s="17"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="9"/>
       <c r="C31" s="12"/>
